--- a/output/northdata.xlsx
+++ b/output/northdata.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/732f4eac5dc51d01/Dokumente/GitHub/DatabaseWizard/output/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DDEA1EC6-48AB-475C-865F-89A1A599FF07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="8_{DDEA1EC6-48AB-475C-865F-89A1A599FF07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3BDD2E5B-C20D-4B0A-AF2C-A68F2E2F3C45}"/>
   <bookViews>
-    <workbookView xWindow="20745" yWindow="-21600" windowWidth="26010" windowHeight="20985"/>
+    <workbookView xWindow="21960" yWindow="-16200" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="northdata" sheetId="1" r:id="rId1"/>
@@ -8689,7 +8689,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -9555,11 +9555,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H866"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A759" workbookViewId="0">
-      <selection activeCell="E772" sqref="E772"/>
+    <sheetView tabSelected="1" topLeftCell="D172" workbookViewId="0">
+      <selection activeCell="H185" sqref="H185"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -12059,7 +12059,7 @@
       <c r="F109">
         <v>3</v>
       </c>
-      <c r="G109" t="s">
+      <c r="G109" s="2" t="s">
         <v>371</v>
       </c>
       <c r="H109">
@@ -14195,7 +14195,7 @@
       <c r="F202">
         <v>5</v>
       </c>
-      <c r="G202" t="s">
+      <c r="G202" s="2" t="s">
         <v>698</v>
       </c>
       <c r="H202">
@@ -14310,7 +14310,7 @@
       <c r="F207">
         <v>130</v>
       </c>
-      <c r="G207" t="s">
+      <c r="G207" s="2" t="s">
         <v>716</v>
       </c>
       <c r="H207" t="s">
@@ -27299,7 +27299,7 @@
       <c r="F775">
         <v>30</v>
       </c>
-      <c r="G775" t="s">
+      <c r="G775" s="2" t="s">
         <v>2582</v>
       </c>
       <c r="H775">
@@ -29380,7 +29380,11 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G37" r:id="rId1"/>
+    <hyperlink ref="G37" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="G775" r:id="rId2" xr:uid="{CEC74C20-3B1A-4841-B13D-6E36014B41C7}"/>
+    <hyperlink ref="G109" r:id="rId3" xr:uid="{8DE2F979-EEE1-4466-94CC-B43D89026C39}"/>
+    <hyperlink ref="G202" r:id="rId4" xr:uid="{3DD18A81-D331-412B-9030-FE95E15D370F}"/>
+    <hyperlink ref="G207" r:id="rId5" xr:uid="{15F162DD-92A3-4D4F-864E-DC35A08C7498}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
